--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Fgf2-Fgfr3.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,9 +76,21 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
+    <t>M2</t>
+  </si>
+  <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -86,9 +98,6 @@
   </si>
   <si>
     <t>Fgfr3</t>
-  </si>
-  <si>
-    <t>ECs</t>
   </si>
 </sst>
 </file>
@@ -446,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T7"/>
+  <dimension ref="A1:T19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C2" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H2">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I2">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J2">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N2">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P2">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q2">
-        <v>45.44629625879349</v>
+        <v>1.658160002529</v>
       </c>
       <c r="R2">
-        <v>45.44629625879349</v>
+        <v>14.923440022761</v>
       </c>
       <c r="S2">
-        <v>0.6176199212072776</v>
+        <v>0.01912145241815576</v>
       </c>
       <c r="T2">
-        <v>0.6176199212072776</v>
+        <v>0.01912145241815576</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -581,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H3">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I3">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J3">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N3">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P3">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q3">
-        <v>7.280969074730844</v>
+        <v>0.264889250694</v>
       </c>
       <c r="R3">
-        <v>7.280969074730844</v>
+        <v>2.384003256246</v>
       </c>
       <c r="S3">
-        <v>0.09894913153407482</v>
+        <v>0.003054631154714317</v>
       </c>
       <c r="T3">
-        <v>0.09894913153407482</v>
+        <v>0.003054631154714317</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -643,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C4" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>11.3005656163132</v>
+        <v>0.397979</v>
       </c>
       <c r="H4">
-        <v>11.3005656163132</v>
+        <v>1.193937</v>
       </c>
       <c r="I4">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="J4">
-        <v>0.839041207145384</v>
+        <v>0.02682976699949243</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.797470039517346</v>
+        <v>1.01401</v>
       </c>
       <c r="N4">
-        <v>0.797470039517346</v>
+        <v>3.04203</v>
       </c>
       <c r="O4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="P4">
-        <v>0.1459667932409548</v>
+        <v>0.1734522490154458</v>
       </c>
       <c r="Q4">
-        <v>9.011862508609649</v>
+        <v>0.40355468579</v>
       </c>
       <c r="R4">
-        <v>9.011862508609649</v>
+        <v>3.63199217211</v>
       </c>
       <c r="S4">
-        <v>0.1224721544040314</v>
+        <v>0.004653683426622353</v>
       </c>
       <c r="T4">
-        <v>0.1224721544040314</v>
+        <v>0.004653683426622352</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -705,61 +714,61 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C5" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.16786182214407</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H5">
-        <v>2.16786182214407</v>
+        <v>34.046756</v>
       </c>
       <c r="I5">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="J5">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.0215948300135</v>
+        <v>4.166450999999999</v>
       </c>
       <c r="N5">
-        <v>4.0215948300135</v>
+        <v>12.499353</v>
       </c>
       <c r="O5">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="P5">
-        <v>0.7361020125680909</v>
+        <v>0.7126954333415383</v>
       </c>
       <c r="Q5">
-        <v>8.718261896118237</v>
+        <v>47.284713527652</v>
       </c>
       <c r="R5">
-        <v>8.718261896118237</v>
+        <v>425.562421748868</v>
       </c>
       <c r="S5">
-        <v>0.1184820913608133</v>
+        <v>0.5452745202188719</v>
       </c>
       <c r="T5">
-        <v>0.1184820913608133</v>
+        <v>0.5452745202188719</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -767,61 +776,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="C6" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>2.16786182214407</v>
+        <v>11.34891866666667</v>
       </c>
       <c r="H6">
-        <v>2.16786182214407</v>
+        <v>34.046756</v>
       </c>
       <c r="I6">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="J6">
-        <v>0.160958792854616</v>
+        <v>0.7650877144845758</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>0.644301296230715</v>
+        <v>0.6655859999999999</v>
       </c>
       <c r="N6">
-        <v>0.644301296230715</v>
+        <v>1.996758</v>
       </c>
       <c r="O6">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="P6">
-        <v>0.1179311941909541</v>
+        <v>0.1138523176430159</v>
       </c>
       <c r="Q6">
-        <v>1.396756182056504</v>
+        <v>7.553681379672</v>
       </c>
       <c r="R6">
-        <v>1.396756182056504</v>
+        <v>67.983132417048</v>
       </c>
       <c r="S6">
-        <v>0.01898206265687927</v>
+        <v>0.08710700949426695</v>
       </c>
       <c r="T6">
-        <v>0.01898206265687927</v>
+        <v>0.08710700949426695</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -829,61 +838,805 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>3</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>11.34891866666667</v>
+      </c>
+      <c r="H7">
+        <v>34.046756</v>
+      </c>
+      <c r="I7">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="J7">
+        <v>0.7650877144845758</v>
+      </c>
+      <c r="K7">
+        <v>3</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>1.01401</v>
+      </c>
+      <c r="N7">
+        <v>3.04203</v>
+      </c>
+      <c r="O7">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="P7">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="Q7">
+        <v>11.50791701718667</v>
+      </c>
+      <c r="R7">
+        <v>103.57125315468</v>
+      </c>
+      <c r="S7">
+        <v>0.132706184771437</v>
+      </c>
+      <c r="T7">
+        <v>0.1327061847714369</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="s">
+      <c r="B8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.119535</v>
+      </c>
+      <c r="H8">
+        <v>0.358605</v>
+      </c>
+      <c r="I8">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J8">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>4.166450999999999</v>
+      </c>
+      <c r="N8">
+        <v>12.499353</v>
+      </c>
+      <c r="O8">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="P8">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="Q8">
+        <v>0.498036720285</v>
+      </c>
+      <c r="R8">
+        <v>4.482330482565</v>
+      </c>
+      <c r="S8">
+        <v>0.005743224679704831</v>
+      </c>
+      <c r="T8">
+        <v>0.005743224679704831</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.119535</v>
+      </c>
+      <c r="H9">
+        <v>0.358605</v>
+      </c>
+      <c r="I9">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J9">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K9">
+        <v>3</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N9">
+        <v>1.996758</v>
+      </c>
+      <c r="O9">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="P9">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="Q9">
+        <v>0.07956082250999999</v>
+      </c>
+      <c r="R9">
+        <v>0.71604740259</v>
+      </c>
+      <c r="S9">
+        <v>0.000917473874447586</v>
+      </c>
+      <c r="T9">
+        <v>0.0009174738744475861</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>25</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.119535</v>
+      </c>
+      <c r="H10">
+        <v>0.358605</v>
+      </c>
+      <c r="I10">
+        <v>0.008058455843861931</v>
+      </c>
+      <c r="J10">
+        <v>0.008058455843861933</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1.01401</v>
+      </c>
+      <c r="N10">
+        <v>3.04203</v>
+      </c>
+      <c r="O10">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="P10">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="Q10">
+        <v>0.12120968535</v>
+      </c>
+      <c r="R10">
+        <v>1.09088716815</v>
+      </c>
+      <c r="S10">
+        <v>0.001397757289709514</v>
+      </c>
+      <c r="T10">
+        <v>0.001397757289709515</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
         <v>23</v>
       </c>
-      <c r="D7" t="s">
+      <c r="B11" t="s">
+        <v>26</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>20</v>
+      </c>
+      <c r="E11">
+        <v>2</v>
+      </c>
+      <c r="F11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G11">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H11">
+        <v>1.372081</v>
+      </c>
+      <c r="I11">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J11">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K11">
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>4.166450999999999</v>
+      </c>
+      <c r="N11">
+        <v>12.499353</v>
+      </c>
+      <c r="O11">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="P11">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="Q11">
+        <v>1.905569418177</v>
+      </c>
+      <c r="R11">
+        <v>17.150124763593</v>
+      </c>
+      <c r="S11">
+        <v>0.02197451084550992</v>
+      </c>
+      <c r="T11">
+        <v>0.02197451084550992</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
         <v>21</v>
       </c>
-      <c r="E7">
-        <v>1</v>
-      </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>2.16786182214407</v>
-      </c>
-      <c r="H7">
-        <v>2.16786182214407</v>
-      </c>
-      <c r="I7">
-        <v>0.160958792854616</v>
-      </c>
-      <c r="J7">
-        <v>0.160958792854616</v>
-      </c>
-      <c r="K7">
-        <v>1</v>
-      </c>
-      <c r="L7">
-        <v>1</v>
-      </c>
-      <c r="M7">
-        <v>0.797470039517346</v>
-      </c>
-      <c r="N7">
-        <v>0.797470039517346</v>
-      </c>
-      <c r="O7">
-        <v>0.1459667932409548</v>
-      </c>
-      <c r="P7">
-        <v>0.1459667932409548</v>
-      </c>
-      <c r="Q7">
-        <v>1.728804852973377</v>
-      </c>
-      <c r="R7">
-        <v>1.728804852973377</v>
-      </c>
-      <c r="S7">
-        <v>0.02349463883692341</v>
-      </c>
-      <c r="T7">
-        <v>0.02349463883692341</v>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H12">
+        <v>1.372081</v>
+      </c>
+      <c r="I12">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J12">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N12">
+        <v>1.996758</v>
+      </c>
+      <c r="O12">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="P12">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="Q12">
+        <v>0.304412634822</v>
+      </c>
+      <c r="R12">
+        <v>2.739713713398</v>
+      </c>
+      <c r="S12">
+        <v>0.003510404124666188</v>
+      </c>
+      <c r="T12">
+        <v>0.003510404124666188</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" t="s">
+        <v>26</v>
+      </c>
+      <c r="C13" t="s">
+        <v>27</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.4573603333333334</v>
+      </c>
+      <c r="H13">
+        <v>1.372081</v>
+      </c>
+      <c r="I13">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="J13">
+        <v>0.03083296148325295</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.01401</v>
+      </c>
+      <c r="N13">
+        <v>3.04203</v>
+      </c>
+      <c r="O13">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="P13">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="Q13">
+        <v>0.4637679516033334</v>
+      </c>
+      <c r="R13">
+        <v>4.17391156443</v>
+      </c>
+      <c r="S13">
+        <v>0.005348046513076841</v>
+      </c>
+      <c r="T13">
+        <v>0.00534804651307684</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>24</v>
+      </c>
+      <c r="B14" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" t="s">
+        <v>27</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H14">
+        <v>0.391799</v>
+      </c>
+      <c r="I14">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J14">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.166450999999999</v>
+      </c>
+      <c r="N14">
+        <v>12.499353</v>
+      </c>
+      <c r="O14">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="P14">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="Q14">
+        <v>0.5441371117829999</v>
+      </c>
+      <c r="R14">
+        <v>4.897234006046999</v>
+      </c>
+      <c r="S14">
+        <v>0.006274841918778804</v>
+      </c>
+      <c r="T14">
+        <v>0.006274841918778804</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C15" t="s">
+        <v>27</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H15">
+        <v>0.391799</v>
+      </c>
+      <c r="I15">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J15">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N15">
+        <v>1.996758</v>
+      </c>
+      <c r="O15">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="P15">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="Q15">
+        <v>0.08692530973799999</v>
+      </c>
+      <c r="R15">
+        <v>0.7823277876419999</v>
+      </c>
+      <c r="S15">
+        <v>0.001002399148184464</v>
+      </c>
+      <c r="T15">
+        <v>0.001002399148184464</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.1305996666666667</v>
+      </c>
+      <c r="H16">
+        <v>0.391799</v>
+      </c>
+      <c r="I16">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="J16">
+        <v>0.008804380700685325</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.01401</v>
+      </c>
+      <c r="N16">
+        <v>3.04203</v>
+      </c>
+      <c r="O16">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="P16">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="Q16">
+        <v>0.1324293679966667</v>
+      </c>
+      <c r="R16">
+        <v>1.19186431197</v>
+      </c>
+      <c r="S16">
+        <v>0.001527139633722056</v>
+      </c>
+      <c r="T16">
+        <v>0.001527139633722056</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>25</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H17">
+        <v>7.137283</v>
+      </c>
+      <c r="I17">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J17">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>4.166450999999999</v>
+      </c>
+      <c r="N17">
+        <v>12.499353</v>
+      </c>
+      <c r="O17">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="P17">
+        <v>0.7126954333415383</v>
+      </c>
+      <c r="Q17">
+        <v>9.912379964210999</v>
+      </c>
+      <c r="R17">
+        <v>89.211419677899</v>
+      </c>
+      <c r="S17">
+        <v>0.1143068832605171</v>
+      </c>
+      <c r="T17">
+        <v>0.1143068832605171</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
+        <v>21</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H18">
+        <v>7.137283</v>
+      </c>
+      <c r="I18">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J18">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.6655859999999999</v>
+      </c>
+      <c r="N18">
+        <v>1.996758</v>
+      </c>
+      <c r="O18">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="P18">
+        <v>0.1138523176430159</v>
+      </c>
+      <c r="Q18">
+        <v>1.583491880946</v>
+      </c>
+      <c r="R18">
+        <v>14.251426928514</v>
+      </c>
+      <c r="S18">
+        <v>0.01826039984673635</v>
+      </c>
+      <c r="T18">
+        <v>0.01826039984673635</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>25</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>2.379094333333333</v>
+      </c>
+      <c r="H19">
+        <v>7.137283</v>
+      </c>
+      <c r="I19">
+        <v>0.1603867204881315</v>
+      </c>
+      <c r="J19">
+        <v>0.1603867204881316</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>1.01401</v>
+      </c>
+      <c r="N19">
+        <v>3.04203</v>
+      </c>
+      <c r="O19">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="P19">
+        <v>0.1734522490154458</v>
+      </c>
+      <c r="Q19">
+        <v>2.412425444943334</v>
+      </c>
+      <c r="R19">
+        <v>21.71182900449</v>
+      </c>
+      <c r="S19">
+        <v>0.0278194373808781</v>
+      </c>
+      <c r="T19">
+        <v>0.0278194373808781</v>
       </c>
     </row>
   </sheetData>
